--- a/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/per_task_score.xlsx
+++ b/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/per_task_score.xlsx
@@ -8,35 +8,32 @@
   </bookViews>
   <sheets>
     <sheet name="gpt-4o-2024-05-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="yi-large" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="internlm2_5-20b-chat" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="glm-4-0520" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="gpt-4o-mini-2024-07-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="gpt-4-turbo-2024-04-09" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="moonshot-v1-32k" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="claude-3-5-sonnet-20240620" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Yi-1.5-9B-Chat" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ERNIE-4.0-8K-0329" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Mistral-7B-Instruct-v0.3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="gemma-2-9b-it" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="glm-4-9b-chat" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Qwen2.5-72B-Instruct" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Yi-1.5-9B-Chat-16K" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="internlm2_5-20b-chat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="glm-4-0520" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="gpt-4o-mini-2024-07-18" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="moonshot-v1-32k" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="claude-3-5-sonnet-20240620" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="yi-lightning" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Yi-1.5-9B-Chat" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ERNIE-4.0-8K-0329" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Ministral-8B-Instruct-2410" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="gemma-2-9b-it" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mistral-Large-Instruct-2411" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="gpt-4o-2024-11-20" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="glm-4-9b-chat" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Qwen2.5-72B-Instruct" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Yi-1.5-34B-Chat" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Meta-Llama-3.1-8B-Instruct" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="gemma-2-27b-it" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Qwen2-72B-Instruct" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Phi-3-small-8k-instruct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Mistral-Large-Instruct-2407" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="DeepSeek-V2.5" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="qwen-max-0919" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Qwen2-7B-Instruct" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="internlm2_5-7b-chat" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Qwen2.5-7B-Instruct" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="DeepSeek-Coder-V2-Lite-Instruct" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Meta-Llama-3.1-70B-Instruct" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Yi-1.5-34B-Chat-16K" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Phi-3-medium-4k-instruct" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="phi-4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="gemma-2-27b-it" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="qwen-max-0919" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="internlm3-8b-instruct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="DeepSeek-V3" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="internlm2_5-7b-chat" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="claude-3-5-sonnet-20241022" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Qwen2.5-7B-Instruct" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Meta-Llama-3.1-70B-Instruct" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Phi-3-medium-4k-instruct" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,13 +488,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.31</v>
+        <v>84.89</v>
       </c>
       <c r="C2" t="n">
-        <v>58.97</v>
+        <v>75.61</v>
       </c>
       <c r="D2" t="n">
-        <v>68.14</v>
+        <v>80.25</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +504,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.38</v>
+        <v>69.58</v>
       </c>
       <c r="C3" t="n">
-        <v>48.84</v>
+        <v>65.12</v>
       </c>
       <c r="D3" t="n">
-        <v>60.61</v>
+        <v>67.34999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -523,13 +520,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.08</v>
+        <v>52.66</v>
       </c>
       <c r="C4" t="n">
-        <v>57.75</v>
+        <v>93.55</v>
       </c>
       <c r="D4" t="n">
-        <v>56.41</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +536,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.44</v>
+        <v>49.34</v>
       </c>
       <c r="C5" t="n">
-        <v>48.48</v>
+        <v>53.57</v>
       </c>
       <c r="D5" t="n">
-        <v>51.96</v>
+        <v>51.46</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +552,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.34</v>
+        <v>81.3</v>
       </c>
       <c r="C6" t="n">
-        <v>51.72</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>65.53</v>
+        <v>73.22</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +568,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.31</v>
+        <v>62.78</v>
       </c>
       <c r="C7" t="n">
-        <v>69.23</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>70.27</v>
+        <v>66.17</v>
       </c>
     </row>
     <row r="8">
@@ -587,13 +584,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.79000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="C8" t="n">
-        <v>51.52</v>
+        <v>48.39</v>
       </c>
       <c r="D8" t="n">
-        <v>62.66</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +600,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74.55</v>
+        <v>83.33</v>
       </c>
       <c r="C9" t="n">
-        <v>53.57</v>
+        <v>46.81</v>
       </c>
       <c r="D9" t="n">
-        <v>64.06</v>
+        <v>65.06999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +657,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.89</v>
+        <v>69.47</v>
       </c>
       <c r="C2" t="n">
-        <v>61.54</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>70.20999999999999</v>
+        <v>67.66</v>
       </c>
     </row>
     <row r="3">
@@ -676,13 +673,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.08</v>
+        <v>50.42</v>
       </c>
       <c r="C3" t="n">
-        <v>72.09</v>
+        <v>65.12</v>
       </c>
       <c r="D3" t="n">
-        <v>62.08</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="4">
@@ -692,13 +689,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.92</v>
+        <v>38.13</v>
       </c>
       <c r="C4" t="n">
-        <v>64.79000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>58.86</v>
+        <v>62.61</v>
       </c>
     </row>
     <row r="5">
@@ -708,13 +705,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.68</v>
+        <v>28.77</v>
       </c>
       <c r="C5" t="n">
-        <v>60.61</v>
+        <v>32.14</v>
       </c>
       <c r="D5" t="n">
-        <v>54.65</v>
+        <v>30.46</v>
       </c>
     </row>
     <row r="6">
@@ -724,13 +721,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.78</v>
+        <v>69.81</v>
       </c>
       <c r="C6" t="n">
-        <v>58.62</v>
+        <v>46.97</v>
       </c>
       <c r="D6" t="n">
-        <v>69.2</v>
+        <v>58.39</v>
       </c>
     </row>
     <row r="7">
@@ -740,13 +737,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.41</v>
+        <v>42.33</v>
       </c>
       <c r="C7" t="n">
-        <v>69.23</v>
+        <v>52.17</v>
       </c>
       <c r="D7" t="n">
-        <v>64.81999999999999</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="8">
@@ -756,13 +753,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.79000000000001</v>
+        <v>51.46</v>
       </c>
       <c r="C8" t="n">
-        <v>42.42</v>
+        <v>29.03</v>
       </c>
       <c r="D8" t="n">
-        <v>59.11</v>
+        <v>40.25</v>
       </c>
     </row>
     <row r="9">
@@ -772,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.81999999999999</v>
+        <v>47.78</v>
       </c>
       <c r="C9" t="n">
-        <v>71.43000000000001</v>
+        <v>34.04</v>
       </c>
       <c r="D9" t="n">
-        <v>76.62</v>
+        <v>40.91</v>
       </c>
     </row>
   </sheetData>
@@ -829,13 +826,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.69</v>
+        <v>56.06</v>
       </c>
       <c r="C2" t="n">
-        <v>30.77</v>
+        <v>53.66</v>
       </c>
       <c r="D2" t="n">
-        <v>34.23</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="3">
@@ -845,13 +842,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>50.42</v>
       </c>
       <c r="C3" t="n">
-        <v>32.56</v>
+        <v>60.47</v>
       </c>
       <c r="D3" t="n">
-        <v>32.28</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="4">
@@ -861,13 +858,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.31</v>
+        <v>28.12</v>
       </c>
       <c r="C4" t="n">
-        <v>22.54</v>
+        <v>83.87</v>
       </c>
       <c r="D4" t="n">
-        <v>24.42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -877,13 +874,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.14</v>
+        <v>16.13</v>
       </c>
       <c r="C5" t="n">
-        <v>21.21</v>
+        <v>21.43</v>
       </c>
       <c r="D5" t="n">
-        <v>21.18</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="6">
@@ -893,13 +890,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.34</v>
+        <v>60.37</v>
       </c>
       <c r="C6" t="n">
-        <v>28.74</v>
+        <v>42.42</v>
       </c>
       <c r="D6" t="n">
-        <v>43.04</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="7">
@@ -909,13 +906,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.14</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>19.23</v>
+        <v>43.48</v>
       </c>
       <c r="D7" t="n">
-        <v>30.19</v>
+        <v>35.74</v>
       </c>
     </row>
     <row r="8">
@@ -925,13 +922,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.36</v>
+        <v>44.58</v>
       </c>
       <c r="C8" t="n">
-        <v>24.24</v>
+        <v>22.58</v>
       </c>
       <c r="D8" t="n">
-        <v>41.3</v>
+        <v>33.58</v>
       </c>
     </row>
     <row r="9">
@@ -941,13 +938,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53.18</v>
+        <v>72.78</v>
       </c>
       <c r="C9" t="n">
-        <v>37.5</v>
+        <v>46.81</v>
       </c>
       <c r="D9" t="n">
-        <v>45.34</v>
+        <v>59.79</v>
       </c>
     </row>
   </sheetData>
@@ -998,13 +995,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.69</v>
+        <v>84.89</v>
       </c>
       <c r="C2" t="n">
-        <v>33.33</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>43.01</v>
+        <v>82.69</v>
       </c>
     </row>
     <row r="3">
@@ -1014,13 +1011,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.38</v>
+        <v>56.25</v>
       </c>
       <c r="C3" t="n">
-        <v>30.23</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>42.31</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="4">
@@ -1030,13 +1027,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.08</v>
+        <v>56.87</v>
       </c>
       <c r="C4" t="n">
-        <v>38.03</v>
+        <v>93.55</v>
       </c>
       <c r="D4" t="n">
-        <v>39.55</v>
+        <v>75.20999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1046,13 +1043,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.75</v>
+        <v>45.28</v>
       </c>
       <c r="C5" t="n">
-        <v>6.06</v>
+        <v>53.57</v>
       </c>
       <c r="D5" t="n">
-        <v>18.91</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1059,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.46</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>31.03</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>46.75</v>
+        <v>73.06999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1078,13 +1075,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.61</v>
+        <v>59.78</v>
       </c>
       <c r="C7" t="n">
-        <v>15.38</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>64.67</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1091,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.79</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>15.15</v>
+        <v>54.84</v>
       </c>
       <c r="D8" t="n">
-        <v>36.97</v>
+        <v>60.65</v>
       </c>
     </row>
     <row r="9">
@@ -1110,13 +1107,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.91</v>
+        <v>72.22</v>
       </c>
       <c r="C9" t="n">
-        <v>30.36</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>50.63</v>
+        <v>69.09</v>
       </c>
     </row>
   </sheetData>
@@ -1167,13 +1164,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.94</v>
+        <v>82.34</v>
       </c>
       <c r="C2" t="n">
-        <v>35.9</v>
+        <v>75.61</v>
       </c>
       <c r="D2" t="n">
-        <v>46.42</v>
+        <v>78.98</v>
       </c>
     </row>
     <row r="3">
@@ -1183,13 +1180,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.58</v>
+        <v>79.58</v>
       </c>
       <c r="C3" t="n">
-        <v>44.19</v>
+        <v>83.72</v>
       </c>
       <c r="D3" t="n">
-        <v>50.38</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1199,13 +1196,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.46</v>
+        <v>55.47</v>
       </c>
       <c r="C4" t="n">
-        <v>45.07</v>
+        <v>96.77</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77</v>
+        <v>76.12</v>
       </c>
     </row>
     <row r="5">
@@ -1215,13 +1212,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.02</v>
+        <v>45.19</v>
       </c>
       <c r="C5" t="n">
-        <v>9.09</v>
+        <v>57.14</v>
       </c>
       <c r="D5" t="n">
-        <v>23.05</v>
+        <v>51.17</v>
       </c>
     </row>
     <row r="6">
@@ -1231,13 +1228,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.48</v>
+        <v>75.56</v>
       </c>
       <c r="C6" t="n">
-        <v>27.59</v>
+        <v>77.27</v>
       </c>
       <c r="D6" t="n">
-        <v>52.53</v>
+        <v>76.41</v>
       </c>
     </row>
     <row r="7">
@@ -1247,13 +1244,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.98</v>
+        <v>68.78</v>
       </c>
       <c r="C7" t="n">
-        <v>46.15</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>57.57</v>
+        <v>69.17</v>
       </c>
     </row>
     <row r="8">
@@ -1263,13 +1260,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.49</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>24.24</v>
+        <v>61.29</v>
       </c>
       <c r="D8" t="n">
-        <v>42.86</v>
+        <v>68.04000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1279,13 +1276,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.81999999999999</v>
+        <v>92.22</v>
       </c>
       <c r="C9" t="n">
-        <v>35.71</v>
+        <v>68.09</v>
       </c>
       <c r="D9" t="n">
-        <v>53.77</v>
+        <v>80.15000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1336,13 +1333,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.52</v>
+        <v>66.91</v>
       </c>
       <c r="C2" t="n">
-        <v>61.54</v>
+        <v>56.1</v>
       </c>
       <c r="D2" t="n">
-        <v>67.53</v>
+        <v>61.51</v>
       </c>
     </row>
     <row r="3">
@@ -1352,13 +1349,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.85</v>
+        <v>70.83</v>
       </c>
       <c r="C3" t="n">
-        <v>67.44</v>
+        <v>72.09</v>
       </c>
       <c r="D3" t="n">
-        <v>62.64</v>
+        <v>71.45999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1365,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.92</v>
+        <v>37.34</v>
       </c>
       <c r="C4" t="n">
-        <v>71.83</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>63.38</v>
+        <v>62.22</v>
       </c>
     </row>
     <row r="5">
@@ -1384,13 +1381,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.96</v>
+        <v>25.94</v>
       </c>
       <c r="C5" t="n">
-        <v>69.7</v>
+        <v>28.57</v>
       </c>
       <c r="D5" t="n">
-        <v>60.33</v>
+        <v>27.26</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1397,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.84</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>55.17</v>
+        <v>57.58</v>
       </c>
       <c r="D6" t="n">
-        <v>67.51000000000001</v>
+        <v>65.81999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1416,13 +1413,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.92</v>
+        <v>57.78</v>
       </c>
       <c r="C7" t="n">
-        <v>65.38</v>
+        <v>65.22</v>
       </c>
       <c r="D7" t="n">
-        <v>65.65000000000001</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="8">
@@ -1432,13 +1429,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.36</v>
+        <v>58.12</v>
       </c>
       <c r="C8" t="n">
-        <v>57.58</v>
+        <v>32.26</v>
       </c>
       <c r="D8" t="n">
-        <v>66.97</v>
+        <v>45.19</v>
       </c>
     </row>
     <row r="9">
@@ -1448,13 +1445,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.73</v>
+        <v>77.78</v>
       </c>
       <c r="C9" t="n">
-        <v>57.14</v>
+        <v>40.43</v>
       </c>
       <c r="D9" t="n">
-        <v>64.94</v>
+        <v>59.1</v>
       </c>
     </row>
   </sheetData>
@@ -1505,13 +1502,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.3</v>
+        <v>84.36</v>
       </c>
       <c r="C2" t="n">
-        <v>61.54</v>
+        <v>78.05</v>
       </c>
       <c r="D2" t="n">
-        <v>48.92</v>
+        <v>81.20999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1521,13 +1518,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.35</v>
+        <v>76.67</v>
       </c>
       <c r="C3" t="n">
-        <v>53.49</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>49.42</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="4">
@@ -1537,13 +1534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.38</v>
+        <v>55.94</v>
       </c>
       <c r="C4" t="n">
-        <v>43.66</v>
+        <v>96.77</v>
       </c>
       <c r="D4" t="n">
-        <v>37.52</v>
+        <v>76.36</v>
       </c>
     </row>
     <row r="5">
@@ -1553,13 +1550,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.79</v>
+        <v>42.36</v>
       </c>
       <c r="C5" t="n">
-        <v>36.36</v>
+        <v>67.86</v>
       </c>
       <c r="D5" t="n">
-        <v>31.08</v>
+        <v>55.11</v>
       </c>
     </row>
     <row r="6">
@@ -1569,13 +1566,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.45</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>42.53</v>
+        <v>66.67</v>
       </c>
       <c r="D6" t="n">
-        <v>54.99</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="7">
@@ -1585,13 +1582,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.33</v>
+        <v>61.22</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>73.91</v>
       </c>
       <c r="D7" t="n">
-        <v>50.16</v>
+        <v>67.56999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1601,13 +1598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.95</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>42.42</v>
+        <v>54.84</v>
       </c>
       <c r="D8" t="n">
-        <v>53.69</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="9">
@@ -1617,13 +1614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.64</v>
+        <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>53.57</v>
+        <v>53.19</v>
       </c>
       <c r="D9" t="n">
-        <v>48.6</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1674,13 +1671,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.74</v>
+        <v>60.21</v>
       </c>
       <c r="C2" t="n">
-        <v>51.28</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>48.51</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="3">
@@ -1690,13 +1687,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.23</v>
+        <v>57.92</v>
       </c>
       <c r="C3" t="n">
-        <v>44.19</v>
+        <v>72.09</v>
       </c>
       <c r="D3" t="n">
-        <v>45.71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1706,13 +1703,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.62</v>
+        <v>36.09</v>
       </c>
       <c r="C4" t="n">
-        <v>43.66</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>41.14</v>
+        <v>63.21</v>
       </c>
     </row>
     <row r="5">
@@ -1722,13 +1719,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.07</v>
+        <v>23.49</v>
       </c>
       <c r="C5" t="n">
-        <v>24.24</v>
+        <v>35.71</v>
       </c>
       <c r="D5" t="n">
-        <v>28.66</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="6">
@@ -1738,13 +1735,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.05</v>
+        <v>57.78</v>
       </c>
       <c r="C6" t="n">
-        <v>29.89</v>
+        <v>53.03</v>
       </c>
       <c r="D6" t="n">
-        <v>47.97</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="7">
@@ -1754,13 +1751,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.67</v>
+        <v>37.67</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>73.91</v>
       </c>
       <c r="D7" t="n">
-        <v>48.84</v>
+        <v>55.79</v>
       </c>
     </row>
     <row r="8">
@@ -1770,13 +1767,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.08</v>
+        <v>52.71</v>
       </c>
       <c r="C8" t="n">
-        <v>39.39</v>
+        <v>41.94</v>
       </c>
       <c r="D8" t="n">
-        <v>52.24</v>
+        <v>47.32</v>
       </c>
     </row>
     <row r="9">
@@ -1786,13 +1783,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60.91</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>42.86</v>
+        <v>46.81</v>
       </c>
       <c r="D9" t="n">
-        <v>51.88</v>
+        <v>48.4</v>
       </c>
     </row>
   </sheetData>
@@ -1843,13 +1840,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.57</v>
+        <v>57.45</v>
       </c>
       <c r="C2" t="n">
-        <v>20.51</v>
+        <v>24.39</v>
       </c>
       <c r="D2" t="n">
-        <v>31.04</v>
+        <v>40.92</v>
       </c>
     </row>
     <row r="3">
@@ -1859,13 +1856,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.31</v>
+        <v>61.67</v>
       </c>
       <c r="C3" t="n">
-        <v>25.58</v>
+        <v>48.84</v>
       </c>
       <c r="D3" t="n">
-        <v>27.94</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="4">
@@ -1875,13 +1872,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.69</v>
+        <v>28.12</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9</v>
+        <v>61.29</v>
       </c>
       <c r="D4" t="n">
-        <v>23.3</v>
+        <v>44.71</v>
       </c>
     </row>
     <row r="5">
@@ -1891,13 +1888,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.26</v>
+        <v>19.81</v>
       </c>
       <c r="C5" t="n">
-        <v>15.15</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>22.71</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="6">
@@ -1910,10 +1907,10 @@
         <v>70.37</v>
       </c>
       <c r="C6" t="n">
-        <v>22.99</v>
+        <v>33.33</v>
       </c>
       <c r="D6" t="n">
-        <v>46.68</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="7">
@@ -1923,13 +1920,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.1</v>
+        <v>34.78</v>
       </c>
       <c r="C7" t="n">
-        <v>30.77</v>
+        <v>43.48</v>
       </c>
       <c r="D7" t="n">
-        <v>34.94</v>
+        <v>39.13</v>
       </c>
     </row>
     <row r="8">
@@ -1939,13 +1936,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.56</v>
+        <v>56.04</v>
       </c>
       <c r="C8" t="n">
-        <v>42.42</v>
+        <v>22.58</v>
       </c>
       <c r="D8" t="n">
-        <v>52.99</v>
+        <v>39.31</v>
       </c>
     </row>
     <row r="9">
@@ -1955,13 +1952,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.64</v>
+        <v>81.11</v>
       </c>
       <c r="C9" t="n">
-        <v>35.71</v>
+        <v>46.81</v>
       </c>
       <c r="D9" t="n">
-        <v>54.68</v>
+        <v>63.96</v>
       </c>
     </row>
   </sheetData>
@@ -2012,13 +2009,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.63</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>43.59</v>
+        <v>78.05</v>
       </c>
       <c r="D2" t="n">
-        <v>54.11</v>
+        <v>76.73999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2028,13 +2025,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.08</v>
+        <v>56.67</v>
       </c>
       <c r="C3" t="n">
-        <v>46.51</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>52.29</v>
+        <v>66.70999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2044,13 +2041,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.38</v>
+        <v>53.75</v>
       </c>
       <c r="C4" t="n">
-        <v>35.21</v>
+        <v>96.77</v>
       </c>
       <c r="D4" t="n">
-        <v>39.3</v>
+        <v>75.26000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -2060,13 +2057,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.25</v>
+        <v>38.21</v>
       </c>
       <c r="C5" t="n">
-        <v>12.12</v>
+        <v>60.71</v>
       </c>
       <c r="D5" t="n">
-        <v>25.18</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="6">
@@ -2076,13 +2073,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.95999999999999</v>
+        <v>69.81</v>
       </c>
       <c r="C6" t="n">
-        <v>36.78</v>
+        <v>66.67</v>
       </c>
       <c r="D6" t="n">
-        <v>51.87</v>
+        <v>68.23999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -2092,13 +2089,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.9</v>
+        <v>45.78</v>
       </c>
       <c r="C7" t="n">
-        <v>23.08</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>33.49</v>
+        <v>66.37</v>
       </c>
     </row>
     <row r="8">
@@ -2108,13 +2105,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.82</v>
+        <v>57.92</v>
       </c>
       <c r="C8" t="n">
-        <v>15.15</v>
+        <v>54.84</v>
       </c>
       <c r="D8" t="n">
-        <v>39.49</v>
+        <v>56.38</v>
       </c>
     </row>
     <row r="9">
@@ -2124,13 +2121,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.45</v>
+        <v>67.78</v>
       </c>
       <c r="C9" t="n">
-        <v>41.07</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>48.26</v>
+        <v>72.19</v>
       </c>
     </row>
   </sheetData>
@@ -2181,13 +2178,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.13</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>53.85</v>
+        <v>63.41</v>
       </c>
       <c r="D2" t="n">
-        <v>57.99</v>
+        <v>64.95</v>
       </c>
     </row>
     <row r="3">
@@ -2197,13 +2194,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.96</v>
+        <v>60.83</v>
       </c>
       <c r="C3" t="n">
-        <v>69.77</v>
+        <v>60.47</v>
       </c>
       <c r="D3" t="n">
-        <v>63.86</v>
+        <v>60.65</v>
       </c>
     </row>
     <row r="4">
@@ -2213,13 +2210,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.62</v>
+        <v>30.16</v>
       </c>
       <c r="C4" t="n">
-        <v>69.01000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>55.81</v>
+        <v>58.63</v>
       </c>
     </row>
     <row r="5">
@@ -2229,13 +2226,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.72</v>
+        <v>20.75</v>
       </c>
       <c r="C5" t="n">
-        <v>45.45</v>
+        <v>21.43</v>
       </c>
       <c r="D5" t="n">
-        <v>46.59</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="6">
@@ -2245,13 +2242,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.59</v>
+        <v>57.22</v>
       </c>
       <c r="C6" t="n">
-        <v>55.17</v>
+        <v>56.06</v>
       </c>
       <c r="D6" t="n">
-        <v>65.38</v>
+        <v>56.64</v>
       </c>
     </row>
     <row r="7">
@@ -2261,13 +2258,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.02</v>
+        <v>36.44</v>
       </c>
       <c r="C7" t="n">
-        <v>57.69</v>
+        <v>39.13</v>
       </c>
       <c r="D7" t="n">
-        <v>60.36</v>
+        <v>37.79</v>
       </c>
     </row>
     <row r="8">
@@ -2277,13 +2274,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.15000000000001</v>
+        <v>52.08</v>
       </c>
       <c r="C8" t="n">
-        <v>45.45</v>
+        <v>35.48</v>
       </c>
       <c r="D8" t="n">
-        <v>59.3</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="9">
@@ -2293,13 +2290,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.45</v>
+        <v>64.44</v>
       </c>
       <c r="C9" t="n">
-        <v>66.06999999999999</v>
+        <v>46.81</v>
       </c>
       <c r="D9" t="n">
-        <v>75.76000000000001</v>
+        <v>55.63</v>
       </c>
     </row>
   </sheetData>
@@ -2350,13 +2347,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.54000000000001</v>
+        <v>57.02</v>
       </c>
       <c r="C2" t="n">
-        <v>56.41</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>65.47</v>
+        <v>62.66</v>
       </c>
     </row>
     <row r="3">
@@ -2366,13 +2363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.46</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>60.47</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>58.96</v>
+        <v>69.53</v>
       </c>
     </row>
     <row r="4">
@@ -2382,13 +2379,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.46</v>
+        <v>34.38</v>
       </c>
       <c r="C4" t="n">
-        <v>59.15</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>51.81</v>
+        <v>62.35</v>
       </c>
     </row>
     <row r="5">
@@ -2398,13 +2395,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.09</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>42.42</v>
+        <v>53.57</v>
       </c>
       <c r="D5" t="n">
-        <v>46.26</v>
+        <v>41.79</v>
       </c>
     </row>
     <row r="6">
@@ -2414,13 +2411,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.64</v>
+        <v>75.56</v>
       </c>
       <c r="C6" t="n">
-        <v>47.13</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>61.38</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2430,13 +2427,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.49</v>
+        <v>48.11</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>82.61</v>
       </c>
       <c r="D7" t="n">
-        <v>54.24</v>
+        <v>65.36</v>
       </c>
     </row>
     <row r="8">
@@ -2446,13 +2443,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.51000000000001</v>
+        <v>48.54</v>
       </c>
       <c r="C8" t="n">
-        <v>36.36</v>
+        <v>64.52</v>
       </c>
       <c r="D8" t="n">
-        <v>51.44</v>
+        <v>56.53</v>
       </c>
     </row>
     <row r="9">
@@ -2462,13 +2459,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.09</v>
+        <v>73.89</v>
       </c>
       <c r="C9" t="n">
-        <v>55.36</v>
+        <v>61.7</v>
       </c>
       <c r="D9" t="n">
-        <v>67.22</v>
+        <v>67.8</v>
       </c>
     </row>
   </sheetData>
@@ -2519,13 +2516,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.19</v>
+        <v>82.45</v>
       </c>
       <c r="C2" t="n">
-        <v>64.09999999999999</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>42.14</v>
+        <v>82.69</v>
       </c>
     </row>
     <row r="3">
@@ -2535,13 +2532,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.69</v>
+        <v>76.67</v>
       </c>
       <c r="C3" t="n">
-        <v>55.81</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>40.75</v>
+        <v>76.70999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2551,13 +2548,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.08</v>
+        <v>57.66</v>
       </c>
       <c r="C4" t="n">
-        <v>56.34</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>39.71</v>
+        <v>78.83</v>
       </c>
     </row>
     <row r="5">
@@ -2567,13 +2564,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.53</v>
+        <v>45.47</v>
       </c>
       <c r="C5" t="n">
-        <v>33.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>24.43</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="6">
@@ -2583,13 +2580,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.48</v>
+        <v>86.11</v>
       </c>
       <c r="C6" t="n">
-        <v>48.28</v>
+        <v>69.7</v>
       </c>
       <c r="D6" t="n">
-        <v>45.38</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2599,13 +2596,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n">
-        <v>61.54</v>
+        <v>65.22</v>
       </c>
       <c r="D7" t="n">
-        <v>42.77</v>
+        <v>66.61</v>
       </c>
     </row>
     <row r="8">
@@ -2615,13 +2612,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.82</v>
+        <v>70.42</v>
       </c>
       <c r="C8" t="n">
-        <v>24.24</v>
+        <v>54.84</v>
       </c>
       <c r="D8" t="n">
-        <v>36.03</v>
+        <v>62.63</v>
       </c>
     </row>
     <row r="9">
@@ -2631,13 +2628,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.09</v>
+        <v>89.44</v>
       </c>
       <c r="C9" t="n">
-        <v>39.29</v>
+        <v>74.47</v>
       </c>
       <c r="D9" t="n">
-        <v>44.19</v>
+        <v>81.95999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2688,13 +2685,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.26000000000001</v>
+        <v>60.85</v>
       </c>
       <c r="C2" t="n">
-        <v>48.72</v>
+        <v>87.8</v>
       </c>
       <c r="D2" t="n">
-        <v>61.49</v>
+        <v>74.33</v>
       </c>
     </row>
     <row r="3">
@@ -2704,13 +2701,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.73</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>53.49</v>
+        <v>88.37</v>
       </c>
       <c r="D3" t="n">
-        <v>57.11</v>
+        <v>74.19</v>
       </c>
     </row>
     <row r="4">
@@ -2720,13 +2717,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.92</v>
+        <v>41.09</v>
       </c>
       <c r="C4" t="n">
-        <v>61.97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>56.45</v>
+        <v>70.55</v>
       </c>
     </row>
     <row r="5">
@@ -2736,13 +2733,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.02</v>
+        <v>31.98</v>
       </c>
       <c r="C5" t="n">
-        <v>36.36</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>44.19</v>
+        <v>53.49</v>
       </c>
     </row>
     <row r="6">
@@ -2752,13 +2749,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.19</v>
+        <v>62.59</v>
       </c>
       <c r="C6" t="n">
-        <v>40.23</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>58.71</v>
+        <v>70.69</v>
       </c>
     </row>
     <row r="7">
@@ -2768,13 +2765,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.41</v>
+        <v>47.11</v>
       </c>
       <c r="C7" t="n">
-        <v>38.46</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>51.93</v>
+        <v>62.69</v>
       </c>
     </row>
     <row r="8">
@@ -2784,13 +2781,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.45999999999999</v>
+        <v>50.42</v>
       </c>
       <c r="C8" t="n">
-        <v>39.39</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>55.93</v>
+        <v>59.08</v>
       </c>
     </row>
     <row r="9">
@@ -2800,13 +2797,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.55</v>
+        <v>52.78</v>
       </c>
       <c r="C9" t="n">
-        <v>51.79</v>
+        <v>72.34</v>
       </c>
       <c r="D9" t="n">
-        <v>58.17</v>
+        <v>62.56</v>
       </c>
     </row>
   </sheetData>
@@ -2857,13 +2854,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.91</v>
+        <v>88.83</v>
       </c>
       <c r="C2" t="n">
-        <v>53.85</v>
+        <v>73.17</v>
       </c>
       <c r="D2" t="n">
-        <v>64.38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -2873,13 +2870,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.15</v>
+        <v>81.67</v>
       </c>
       <c r="C3" t="n">
-        <v>60.47</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>58.31</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="4">
@@ -2889,13 +2886,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.08</v>
+        <v>62.34</v>
       </c>
       <c r="C4" t="n">
-        <v>59.15</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>56.12</v>
+        <v>81.17</v>
       </c>
     </row>
     <row r="5">
@@ -2905,13 +2902,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>52.45</v>
       </c>
       <c r="C5" t="n">
-        <v>39.39</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>42.2</v>
+        <v>65.51000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -2921,13 +2918,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.05</v>
+        <v>83.33</v>
       </c>
       <c r="C6" t="n">
-        <v>47.13</v>
+        <v>69.7</v>
       </c>
       <c r="D6" t="n">
-        <v>60.59</v>
+        <v>76.52</v>
       </c>
     </row>
     <row r="7">
@@ -2937,13 +2934,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.98</v>
+        <v>70.33</v>
       </c>
       <c r="C7" t="n">
-        <v>42.31</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>55.14</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="8">
@@ -2953,13 +2950,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.69</v>
+        <v>69.37</v>
       </c>
       <c r="C8" t="n">
-        <v>36.36</v>
+        <v>54.84</v>
       </c>
       <c r="D8" t="n">
-        <v>52.53</v>
+        <v>62.11</v>
       </c>
     </row>
     <row r="9">
@@ -2969,13 +2966,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.91</v>
+        <v>85.56</v>
       </c>
       <c r="C9" t="n">
-        <v>32.14</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>54.03</v>
+        <v>77.88</v>
       </c>
     </row>
   </sheetData>
@@ -3026,13 +3023,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.17</v>
+        <v>51.7</v>
       </c>
       <c r="C2" t="n">
-        <v>58.97</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>66.56999999999999</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="3">
@@ -3042,13 +3039,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.95999999999999</v>
+        <v>50.83</v>
       </c>
       <c r="C3" t="n">
-        <v>67.44</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>68.7</v>
+        <v>63.79</v>
       </c>
     </row>
     <row r="4">
@@ -3058,13 +3055,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.92</v>
+        <v>30.47</v>
       </c>
       <c r="C4" t="n">
-        <v>67.61</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>64.26000000000001</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="5">
@@ -3074,13 +3071,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.19</v>
+        <v>22.55</v>
       </c>
       <c r="C5" t="n">
-        <v>57.58</v>
+        <v>53.57</v>
       </c>
       <c r="D5" t="n">
-        <v>57.38</v>
+        <v>38.06</v>
       </c>
     </row>
     <row r="6">
@@ -3090,13 +3087,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.45</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>56.32</v>
+        <v>63.64</v>
       </c>
       <c r="D6" t="n">
-        <v>69.89</v>
+        <v>66.45</v>
       </c>
     </row>
     <row r="7">
@@ -3106,13 +3103,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.56999999999999</v>
+        <v>37.89</v>
       </c>
       <c r="C7" t="n">
-        <v>65.38</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>66.98</v>
+        <v>58.07</v>
       </c>
     </row>
     <row r="8">
@@ -3122,13 +3119,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.20999999999999</v>
+        <v>56.87</v>
       </c>
       <c r="C8" t="n">
-        <v>57.58</v>
+        <v>54.84</v>
       </c>
       <c r="D8" t="n">
-        <v>66.39</v>
+        <v>55.86</v>
       </c>
     </row>
     <row r="9">
@@ -3138,13 +3135,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.73</v>
+        <v>65.56</v>
       </c>
       <c r="C9" t="n">
-        <v>69.64</v>
+        <v>59.57</v>
       </c>
       <c r="D9" t="n">
-        <v>76.19</v>
+        <v>62.57</v>
       </c>
     </row>
   </sheetData>
@@ -3195,13 +3192,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.83</v>
+        <v>89.47</v>
       </c>
       <c r="C2" t="n">
-        <v>53.85</v>
+        <v>60.98</v>
       </c>
       <c r="D2" t="n">
-        <v>47.34</v>
+        <v>75.22</v>
       </c>
     </row>
     <row r="3">
@@ -3211,13 +3208,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.31</v>
+        <v>61.67</v>
       </c>
       <c r="C3" t="n">
-        <v>65.12</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>55.71</v>
+        <v>69.20999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3227,13 +3224,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.54</v>
+        <v>54.69</v>
       </c>
       <c r="C4" t="n">
-        <v>52.11</v>
+        <v>96.77</v>
       </c>
       <c r="D4" t="n">
-        <v>41.83</v>
+        <v>75.73</v>
       </c>
     </row>
     <row r="5">
@@ -3243,13 +3240,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.68</v>
+        <v>57.74</v>
       </c>
       <c r="C5" t="n">
-        <v>36.36</v>
+        <v>60.71</v>
       </c>
       <c r="D5" t="n">
-        <v>32.52</v>
+        <v>59.23</v>
       </c>
     </row>
     <row r="6">
@@ -3259,13 +3256,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.64</v>
+        <v>77.59</v>
       </c>
       <c r="C6" t="n">
-        <v>50.57</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>58.61</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3275,13 +3272,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.53</v>
+        <v>62.78</v>
       </c>
       <c r="C7" t="n">
-        <v>57.69</v>
+        <v>60.87</v>
       </c>
       <c r="D7" t="n">
-        <v>51.61</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="8">
@@ -3291,13 +3288,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.54</v>
+        <v>72.08</v>
       </c>
       <c r="C8" t="n">
-        <v>36.36</v>
+        <v>51.61</v>
       </c>
       <c r="D8" t="n">
-        <v>47.45</v>
+        <v>61.85</v>
       </c>
     </row>
     <row r="9">
@@ -3307,13 +3304,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.36</v>
+        <v>83.33</v>
       </c>
       <c r="C9" t="n">
-        <v>53.57</v>
+        <v>59.57</v>
       </c>
       <c r="D9" t="n">
-        <v>59.97</v>
+        <v>71.45</v>
       </c>
     </row>
   </sheetData>
@@ -3364,13 +3361,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.87</v>
+        <v>67.55</v>
       </c>
       <c r="C2" t="n">
-        <v>51.28</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>42.08</v>
+        <v>67.92</v>
       </c>
     </row>
     <row r="3">
@@ -3380,13 +3377,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.23</v>
+        <v>60.42</v>
       </c>
       <c r="C3" t="n">
-        <v>62.79</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>58.01</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="4">
@@ -3396,13 +3393,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.62</v>
+        <v>47.19</v>
       </c>
       <c r="C4" t="n">
-        <v>56.34</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>44.48</v>
+        <v>68.76000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3412,13 +3409,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.23</v>
+        <v>31.79</v>
       </c>
       <c r="C5" t="n">
-        <v>39.39</v>
+        <v>35.71</v>
       </c>
       <c r="D5" t="n">
-        <v>35.31</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="6">
@@ -3428,13 +3425,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.61</v>
+        <v>74.44</v>
       </c>
       <c r="C6" t="n">
-        <v>47.13</v>
+        <v>54.55</v>
       </c>
       <c r="D6" t="n">
-        <v>60.37</v>
+        <v>64.48999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3444,13 +3441,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.31</v>
+        <v>46.22</v>
       </c>
       <c r="C7" t="n">
-        <v>61.54</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>52.92</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="8">
@@ -3460,13 +3457,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.84999999999999</v>
+        <v>61.88</v>
       </c>
       <c r="C8" t="n">
-        <v>57.58</v>
+        <v>35.48</v>
       </c>
       <c r="D8" t="n">
-        <v>61.21</v>
+        <v>48.68</v>
       </c>
     </row>
     <row r="9">
@@ -3476,13 +3473,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.55</v>
+        <v>67.22</v>
       </c>
       <c r="C9" t="n">
-        <v>58.93</v>
+        <v>38.3</v>
       </c>
       <c r="D9" t="n">
-        <v>61.74</v>
+        <v>52.76</v>
       </c>
     </row>
   </sheetData>
@@ -3533,13 +3530,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.61</v>
+        <v>67.34</v>
       </c>
       <c r="C2" t="n">
-        <v>61.54</v>
+        <v>53.66</v>
       </c>
       <c r="D2" t="n">
-        <v>52.57</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="3">
@@ -3549,13 +3546,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.62</v>
+        <v>56.25</v>
       </c>
       <c r="C3" t="n">
-        <v>53.49</v>
+        <v>62.79</v>
       </c>
       <c r="D3" t="n">
-        <v>54.55</v>
+        <v>59.52</v>
       </c>
     </row>
     <row r="4">
@@ -3565,13 +3562,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.85</v>
+        <v>33.59</v>
       </c>
       <c r="C4" t="n">
-        <v>59.15</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>55.5</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="5">
@@ -3581,13 +3578,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.25</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>35.79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -3597,13 +3594,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.31</v>
+        <v>68.33</v>
       </c>
       <c r="C6" t="n">
-        <v>41.38</v>
+        <v>57.58</v>
       </c>
       <c r="D6" t="n">
-        <v>56.84</v>
+        <v>62.95</v>
       </c>
     </row>
     <row r="7">
@@ -3613,13 +3610,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.8</v>
+        <v>50.67</v>
       </c>
       <c r="C7" t="n">
-        <v>69.23</v>
+        <v>47.83</v>
       </c>
       <c r="D7" t="n">
-        <v>57.01</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="8">
@@ -3629,13 +3626,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.84999999999999</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>36.36</v>
+        <v>29.03</v>
       </c>
       <c r="D8" t="n">
-        <v>51.6</v>
+        <v>47.54</v>
       </c>
     </row>
     <row r="9">
@@ -3645,13 +3642,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.73</v>
+        <v>58.89</v>
       </c>
       <c r="C9" t="n">
-        <v>37.5</v>
+        <v>55.32</v>
       </c>
       <c r="D9" t="n">
-        <v>55.11</v>
+        <v>57.1</v>
       </c>
     </row>
   </sheetData>
@@ -3702,13 +3699,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.74</v>
+        <v>45.43</v>
       </c>
       <c r="C2" t="n">
-        <v>35.9</v>
+        <v>70.73</v>
       </c>
       <c r="D2" t="n">
-        <v>45.82</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="3">
@@ -3718,13 +3715,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.19</v>
+        <v>62.5</v>
       </c>
       <c r="C3" t="n">
-        <v>44.19</v>
+        <v>72.09</v>
       </c>
       <c r="D3" t="n">
-        <v>51.69</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="4">
@@ -3734,13 +3731,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.31</v>
+        <v>23.13</v>
       </c>
       <c r="C4" t="n">
-        <v>53.52</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>43.91</v>
+        <v>51.89</v>
       </c>
     </row>
     <row r="5">
@@ -3750,13 +3747,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.44</v>
+        <v>21.32</v>
       </c>
       <c r="C5" t="n">
-        <v>24.24</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>29.84</v>
+        <v>46.37</v>
       </c>
     </row>
     <row r="6">
@@ -3766,13 +3763,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.39</v>
+        <v>44.81</v>
       </c>
       <c r="C6" t="n">
-        <v>37.93</v>
+        <v>59.09</v>
       </c>
       <c r="D6" t="n">
-        <v>52.16</v>
+        <v>51.95</v>
       </c>
     </row>
     <row r="7">
@@ -3782,13 +3779,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.82</v>
+        <v>26.33</v>
       </c>
       <c r="C7" t="n">
-        <v>30.77</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>40.29</v>
+        <v>56.64</v>
       </c>
     </row>
     <row r="8">
@@ -3798,13 +3795,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.1</v>
+        <v>30.21</v>
       </c>
       <c r="C8" t="n">
-        <v>36.36</v>
+        <v>38.71</v>
       </c>
       <c r="D8" t="n">
-        <v>47.23</v>
+        <v>34.46</v>
       </c>
     </row>
     <row r="9">
@@ -3814,351 +3811,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.18000000000001</v>
+        <v>47.22</v>
       </c>
       <c r="C9" t="n">
-        <v>33.93</v>
+        <v>44.68</v>
       </c>
       <c r="D9" t="n">
-        <v>51.06</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>task_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>correct_avg_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>antisyco_avg_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>all_avg_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Coding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>59.17</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Knowledge Q&amp;A</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="C3" t="n">
-        <v>39.53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mathematics</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Reasoning</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Text Creation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>70.84</v>
-      </c>
-      <c r="C6" t="n">
-        <v>36.78</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.81</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Text Error Correction</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>52</v>
-      </c>
-      <c r="C7" t="n">
-        <v>34.62</v>
-      </c>
-      <c r="D7" t="n">
-        <v>43.31</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Text Extraction</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="C8" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="D8" t="n">
-        <v>52.85</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Text Translation</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>72.27</v>
-      </c>
-      <c r="C9" t="n">
-        <v>44.64</v>
-      </c>
-      <c r="D9" t="n">
-        <v>58.46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>task_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>correct_avg_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>antisyco_avg_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>all_avg_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Coding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>45</v>
-      </c>
-      <c r="C2" t="n">
-        <v>56.41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.71</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Knowledge Q&amp;A</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>42.08</v>
-      </c>
-      <c r="C3" t="n">
-        <v>48.84</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mathematics</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Reasoning</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="C5" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Text Creation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>68.44</v>
-      </c>
-      <c r="C6" t="n">
-        <v>39.08</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Text Error Correction</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>48.65</v>
-      </c>
-      <c r="C7" t="n">
-        <v>61.54</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Text Extraction</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>56.62</v>
-      </c>
-      <c r="C8" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="D8" t="n">
-        <v>41.94</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Text Translation</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="C9" t="n">
-        <v>46.43</v>
-      </c>
-      <c r="D9" t="n">
-        <v>53.67</v>
+        <v>45.95</v>
       </c>
     </row>
   </sheetData>
@@ -4209,13 +3868,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.69</v>
+        <v>72.55</v>
       </c>
       <c r="C2" t="n">
-        <v>53.85</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>45.77</v>
+        <v>70.42</v>
       </c>
     </row>
     <row r="3">
@@ -4225,13 +3884,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.38</v>
+        <v>61.25</v>
       </c>
       <c r="C3" t="n">
-        <v>69.77</v>
+        <v>86.05</v>
       </c>
       <c r="D3" t="n">
-        <v>65.58</v>
+        <v>73.65000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4241,13 +3900,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.62</v>
+        <v>42.5</v>
       </c>
       <c r="C4" t="n">
-        <v>60.56</v>
+        <v>93.55</v>
       </c>
       <c r="D4" t="n">
-        <v>50.59</v>
+        <v>68.02</v>
       </c>
     </row>
     <row r="5">
@@ -4257,13 +3916,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.86</v>
+        <v>44.06</v>
       </c>
       <c r="C5" t="n">
-        <v>48.48</v>
+        <v>53.57</v>
       </c>
       <c r="D5" t="n">
-        <v>43.67</v>
+        <v>48.81</v>
       </c>
     </row>
     <row r="6">
@@ -4273,13 +3932,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>70.93000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>59.77</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>66.89</v>
+        <v>76.37</v>
       </c>
     </row>
     <row r="7">
@@ -4289,13 +3948,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.33</v>
+        <v>63.11</v>
       </c>
       <c r="C7" t="n">
-        <v>61.54</v>
+        <v>65.22</v>
       </c>
       <c r="D7" t="n">
-        <v>58.43</v>
+        <v>64.16</v>
       </c>
     </row>
     <row r="8">
@@ -4305,13 +3964,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.79000000000001</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>60.61</v>
+        <v>64.52</v>
       </c>
       <c r="D8" t="n">
-        <v>63.7</v>
+        <v>64.65000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4321,182 +3980,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.09</v>
+        <v>62.78</v>
       </c>
       <c r="C9" t="n">
-        <v>67.86</v>
+        <v>74.47</v>
       </c>
       <c r="D9" t="n">
-        <v>68.47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>task_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>correct_avg_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>antisyco_avg_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>all_avg_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Coding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="C2" t="n">
-        <v>51.28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Knowledge Q&amp;A</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" t="n">
-        <v>60.47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mathematics</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="C4" t="n">
-        <v>61.97</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Reasoning</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>51.52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Text Creation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>54.92</v>
-      </c>
-      <c r="C6" t="n">
-        <v>52.87</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Text Error Correction</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="D7" t="n">
-        <v>49.69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Text Extraction</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>46.15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>51.52</v>
-      </c>
-      <c r="D8" t="n">
-        <v>48.83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Text Translation</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="C9" t="n">
-        <v>39.29</v>
-      </c>
-      <c r="D9" t="n">
-        <v>42.37</v>
+        <v>68.62</v>
       </c>
     </row>
   </sheetData>
@@ -4547,13 +4037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.91</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>66.67</v>
+        <v>75.61</v>
       </c>
       <c r="D2" t="n">
-        <v>70.79000000000001</v>
+        <v>79.56</v>
       </c>
     </row>
     <row r="3">
@@ -4563,13 +4053,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.77</v>
+        <v>65.83</v>
       </c>
       <c r="C3" t="n">
-        <v>62.79</v>
+        <v>72.09</v>
       </c>
       <c r="D3" t="n">
-        <v>65.28</v>
+        <v>68.95999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4579,13 +4069,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.15</v>
+        <v>47.66</v>
       </c>
       <c r="C4" t="n">
-        <v>46.48</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>47.32</v>
+        <v>68.98999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4595,13 +4085,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.26</v>
+        <v>34.43</v>
       </c>
       <c r="C5" t="n">
-        <v>39.39</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>44.83</v>
+        <v>42.22</v>
       </c>
     </row>
     <row r="6">
@@ -4611,13 +4101,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.78</v>
+        <v>74.81</v>
       </c>
       <c r="C6" t="n">
-        <v>60.92</v>
+        <v>53.03</v>
       </c>
       <c r="D6" t="n">
-        <v>67.84999999999999</v>
+        <v>63.92</v>
       </c>
     </row>
     <row r="7">
@@ -4627,13 +4117,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.31</v>
+        <v>48.89</v>
       </c>
       <c r="C7" t="n">
-        <v>57.69</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>62.5</v>
+        <v>59.23</v>
       </c>
     </row>
     <row r="8">
@@ -4643,13 +4133,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.56</v>
+        <v>65.62</v>
       </c>
       <c r="C8" t="n">
-        <v>42.42</v>
+        <v>35.48</v>
       </c>
       <c r="D8" t="n">
-        <v>57.49</v>
+        <v>50.55</v>
       </c>
     </row>
     <row r="9">
@@ -4659,13 +4149,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.45</v>
+        <v>73.89</v>
       </c>
       <c r="C9" t="n">
-        <v>66.06999999999999</v>
+        <v>63.83</v>
       </c>
       <c r="D9" t="n">
-        <v>70.76000000000001</v>
+        <v>68.86</v>
       </c>
     </row>
   </sheetData>
@@ -4716,13 +4206,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.89</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>56.41</v>
+        <v>75.61</v>
       </c>
       <c r="D2" t="n">
-        <v>67.65000000000001</v>
+        <v>75.45999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4732,13 +4222,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.31</v>
+        <v>61.67</v>
       </c>
       <c r="C3" t="n">
-        <v>46.51</v>
+        <v>72.09</v>
       </c>
       <c r="D3" t="n">
-        <v>54.41</v>
+        <v>66.88</v>
       </c>
     </row>
     <row r="4">
@@ -4748,13 +4238,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.85</v>
+        <v>36.56</v>
       </c>
       <c r="C4" t="n">
-        <v>66.2</v>
+        <v>93.55</v>
       </c>
       <c r="D4" t="n">
-        <v>58.02</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="5">
@@ -4764,13 +4254,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.53</v>
+        <v>35.09</v>
       </c>
       <c r="C5" t="n">
-        <v>39.39</v>
+        <v>57.14</v>
       </c>
       <c r="D5" t="n">
-        <v>42.46</v>
+        <v>46.12</v>
       </c>
     </row>
     <row r="6">
@@ -4780,13 +4270,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.14</v>
+        <v>75.56</v>
       </c>
       <c r="C6" t="n">
-        <v>35.63</v>
+        <v>72.73</v>
       </c>
       <c r="D6" t="n">
-        <v>56.39</v>
+        <v>74.14</v>
       </c>
     </row>
     <row r="7">
@@ -4796,13 +4286,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.41</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>54.7</v>
+        <v>67.63</v>
       </c>
     </row>
     <row r="8">
@@ -4812,13 +4302,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.64</v>
+        <v>60.42</v>
       </c>
       <c r="C8" t="n">
-        <v>42.42</v>
+        <v>51.61</v>
       </c>
       <c r="D8" t="n">
-        <v>57.53</v>
+        <v>56.01</v>
       </c>
     </row>
     <row r="9">
@@ -4828,13 +4318,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.18000000000001</v>
+        <v>71.11</v>
       </c>
       <c r="C9" t="n">
-        <v>67.86</v>
+        <v>53.19</v>
       </c>
       <c r="D9" t="n">
-        <v>78.02</v>
+        <v>62.15</v>
       </c>
     </row>
   </sheetData>
@@ -4885,13 +4375,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.19</v>
+        <v>92.02</v>
       </c>
       <c r="C2" t="n">
-        <v>61.54</v>
+        <v>56.1</v>
       </c>
       <c r="D2" t="n">
-        <v>70.86</v>
+        <v>74.06</v>
       </c>
     </row>
     <row r="3">
@@ -4901,13 +4391,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.45999999999999</v>
+        <v>73.33</v>
       </c>
       <c r="C3" t="n">
-        <v>58.14</v>
+        <v>72.09</v>
       </c>
       <c r="D3" t="n">
-        <v>64.3</v>
+        <v>72.70999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4917,13 +4407,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.77</v>
+        <v>44.22</v>
       </c>
       <c r="C4" t="n">
-        <v>66.2</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>59.48</v>
+        <v>72.11</v>
       </c>
     </row>
     <row r="5">
@@ -4933,13 +4423,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.67</v>
+        <v>52.45</v>
       </c>
       <c r="C5" t="n">
-        <v>51.52</v>
+        <v>42.86</v>
       </c>
       <c r="D5" t="n">
-        <v>54.09</v>
+        <v>47.65</v>
       </c>
     </row>
     <row r="6">
@@ -4949,13 +4439,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.36</v>
+        <v>78.52</v>
       </c>
       <c r="C6" t="n">
-        <v>50.57</v>
+        <v>72.73</v>
       </c>
       <c r="D6" t="n">
-        <v>63.97</v>
+        <v>75.62</v>
       </c>
     </row>
     <row r="7">
@@ -4965,13 +4455,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.16</v>
+        <v>57.33</v>
       </c>
       <c r="C7" t="n">
-        <v>46.15</v>
+        <v>60.87</v>
       </c>
       <c r="D7" t="n">
-        <v>53.66</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="8">
@@ -4981,13 +4471,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.77</v>
+        <v>67.92</v>
       </c>
       <c r="C8" t="n">
-        <v>48.48</v>
+        <v>51.61</v>
       </c>
       <c r="D8" t="n">
-        <v>59.13</v>
+        <v>59.76</v>
       </c>
     </row>
     <row r="9">
@@ -4997,13 +4487,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.55</v>
+        <v>86.11</v>
       </c>
       <c r="C9" t="n">
-        <v>66.06999999999999</v>
+        <v>55.32</v>
       </c>
       <c r="D9" t="n">
-        <v>67.81</v>
+        <v>70.72</v>
       </c>
     </row>
   </sheetData>
@@ -5054,13 +4544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.5</v>
+        <v>82.77</v>
       </c>
       <c r="C2" t="n">
-        <v>61.54</v>
+        <v>73.17</v>
       </c>
       <c r="D2" t="n">
-        <v>64.52</v>
+        <v>77.97</v>
       </c>
     </row>
     <row r="3">
@@ -5070,13 +4560,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.69</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>65.12</v>
+        <v>72.09</v>
       </c>
       <c r="D3" t="n">
-        <v>57.4</v>
+        <v>76.05</v>
       </c>
     </row>
     <row r="4">
@@ -5086,13 +4576,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.92</v>
+        <v>53.44</v>
       </c>
       <c r="C4" t="n">
-        <v>43.66</v>
+        <v>93.55</v>
       </c>
       <c r="D4" t="n">
-        <v>39.29</v>
+        <v>73.48999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5102,13 +4592,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.63</v>
+        <v>49.15</v>
       </c>
       <c r="C5" t="n">
-        <v>45.45</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>41.54</v>
+        <v>49.58</v>
       </c>
     </row>
     <row r="6">
@@ -5118,13 +4608,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.91</v>
+        <v>81.48</v>
       </c>
       <c r="C6" t="n">
-        <v>48.28</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>63.59</v>
+        <v>73.31999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5134,13 +4624,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.22</v>
+        <v>69.33</v>
       </c>
       <c r="C7" t="n">
-        <v>57.69</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>60.46</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="8">
@@ -5150,13 +4640,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.33</v>
+        <v>65.62</v>
       </c>
       <c r="C8" t="n">
-        <v>48.48</v>
+        <v>38.71</v>
       </c>
       <c r="D8" t="n">
-        <v>58.41</v>
+        <v>52.17</v>
       </c>
     </row>
     <row r="9">
@@ -5166,13 +4656,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.36</v>
+        <v>78.89</v>
       </c>
       <c r="C9" t="n">
-        <v>41.07</v>
+        <v>55.32</v>
       </c>
       <c r="D9" t="n">
-        <v>58.72</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5223,13 +4713,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.5</v>
+        <v>54.47</v>
       </c>
       <c r="C2" t="n">
-        <v>43.59</v>
+        <v>63.41</v>
       </c>
       <c r="D2" t="n">
-        <v>63.04</v>
+        <v>58.94</v>
       </c>
     </row>
     <row r="3">
@@ -5239,13 +4729,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.5</v>
+        <v>48.33</v>
       </c>
       <c r="C3" t="n">
-        <v>53.49</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>63.49</v>
+        <v>62.54</v>
       </c>
     </row>
     <row r="4">
@@ -5255,13 +4745,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.15</v>
+        <v>29.53</v>
       </c>
       <c r="C4" t="n">
-        <v>42.25</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>49.2</v>
+        <v>58.31</v>
       </c>
     </row>
     <row r="5">
@@ -5271,13 +4761,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.67</v>
+        <v>15.19</v>
       </c>
       <c r="C5" t="n">
-        <v>27.27</v>
+        <v>32.14</v>
       </c>
       <c r="D5" t="n">
-        <v>44.47</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="6">
@@ -5287,13 +4777,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.33</v>
+        <v>60.37</v>
       </c>
       <c r="C6" t="n">
-        <v>47.13</v>
+        <v>53.03</v>
       </c>
       <c r="D6" t="n">
-        <v>64.73</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="7">
@@ -5303,13 +4793,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.84</v>
+        <v>45.67</v>
       </c>
       <c r="C7" t="n">
-        <v>42.31</v>
+        <v>52.17</v>
       </c>
       <c r="D7" t="n">
-        <v>54.07</v>
+        <v>48.92</v>
       </c>
     </row>
     <row r="8">
@@ -5319,13 +4809,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.79000000000001</v>
+        <v>47.08</v>
       </c>
       <c r="C8" t="n">
-        <v>57.58</v>
+        <v>25.81</v>
       </c>
       <c r="D8" t="n">
-        <v>69.19</v>
+        <v>36.44</v>
       </c>
     </row>
     <row r="9">
@@ -5335,13 +4825,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.18000000000001</v>
+        <v>48.33</v>
       </c>
       <c r="C9" t="n">
-        <v>57.14</v>
+        <v>44.68</v>
       </c>
       <c r="D9" t="n">
-        <v>72.66</v>
+        <v>46.51</v>
       </c>
     </row>
   </sheetData>
@@ -5392,13 +4882,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.24</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>30.77</v>
+        <v>78.05</v>
       </c>
       <c r="D2" t="n">
-        <v>34.5</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="3">
@@ -5408,13 +4898,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.23</v>
+        <v>50.42</v>
       </c>
       <c r="C3" t="n">
-        <v>37.21</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>40.22</v>
+        <v>64.73999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5424,13 +4914,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>47.66</v>
       </c>
       <c r="C4" t="n">
-        <v>39.44</v>
+        <v>93.55</v>
       </c>
       <c r="D4" t="n">
-        <v>36.72</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5440,13 +4930,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.37</v>
+        <v>43.77</v>
       </c>
       <c r="C5" t="n">
-        <v>36.36</v>
+        <v>82.14</v>
       </c>
       <c r="D5" t="n">
-        <v>31.87</v>
+        <v>62.96</v>
       </c>
     </row>
     <row r="6">
@@ -5456,13 +4946,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.40000000000001</v>
+        <v>78.52</v>
       </c>
       <c r="C6" t="n">
-        <v>33.33</v>
+        <v>69.7</v>
       </c>
       <c r="D6" t="n">
-        <v>49.86</v>
+        <v>74.11</v>
       </c>
     </row>
     <row r="7">
@@ -5472,13 +4962,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.82</v>
+        <v>64.22</v>
       </c>
       <c r="C7" t="n">
-        <v>38.46</v>
+        <v>73.91</v>
       </c>
       <c r="D7" t="n">
-        <v>44.64</v>
+        <v>69.06999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5488,13 +4978,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.73999999999999</v>
+        <v>62.29</v>
       </c>
       <c r="C8" t="n">
-        <v>15.15</v>
+        <v>58.06</v>
       </c>
       <c r="D8" t="n">
-        <v>41.45</v>
+        <v>60.18</v>
       </c>
     </row>
     <row r="9">
@@ -5504,13 +4994,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.45</v>
+        <v>70.56</v>
       </c>
       <c r="C9" t="n">
-        <v>44.64</v>
+        <v>72.34</v>
       </c>
       <c r="D9" t="n">
-        <v>50.05</v>
+        <v>71.45</v>
       </c>
     </row>
   </sheetData>
